--- a/ycsbResults.xlsx
+++ b/ycsbResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austintolani/Projects/performanceEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933C085-468A-0342-8B2B-7FFE42468354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C3556E-3C46-CD4E-9094-C04BC0FA4B87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{E6D46ADE-2C26-9A4A-9DAB-76E8110A91D8}"/>
   </bookViews>
@@ -140,37 +140,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -186,117 +156,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>T2.Large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Load!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Load!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1134.94495516967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1789.8693395382099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2482.6216484607698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2269.1173133651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1955.0342130987201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1865.67164179104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1837.5597206909199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1861.1576400521101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A542-D143-AAE4-FCFC84831CF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Load!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T3.Large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,33 +219,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Load!$B$3:$I$3</c:f>
+              <c:f>Load!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1691.18890580077</c:v>
+                  <c:v>1134.94495516967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2417.2105390379502</c:v>
+                  <c:v>1789.8693395382099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2531.6455696202502</c:v>
+                  <c:v>2482.6216484607698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2331.54581487526</c:v>
+                  <c:v>2269.1173133651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1985.3087155052599</c:v>
+                  <c:v>1955.0342130987201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1803.7518037518</c:v>
+                  <c:v>1865.67164179104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1973.55437142293</c:v>
+                  <c:v>1837.5597206909199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1452.43282498184</c:v>
+                  <c:v>1861.1576400521101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,131 +253,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A542-D143-AAE4-FCFC84831CF4}"/>
+              <c16:uniqueId val="{00000000-A542-D143-AAE4-FCFC84831CF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Load!$A$4</c:f>
+              <c:f>Load!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M4.Large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Load!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Load!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1615.7699143641901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2231.6447221602298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2564.1025641025599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2339.1812865497</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1922.3375624759699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1897.17321191424</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1855.2875695732801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1479.50880307737</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A542-D143-AAE4-FCFC84831CF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Load!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C4.Large</c:v>
+                  <c:v>T3.Large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,6 +330,234 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Load!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1691.18890580077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2417.2105390379502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2531.6455696202502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2331.54581487526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.3087155052599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1803.7518037518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1973.55437142293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1452.43282498184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A542-D143-AAE4-FCFC84831CF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4.Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Load!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1615.7699143641901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2231.6447221602298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2564.1025641025599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339.1812865497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1922.3375624759699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1897.17321191424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1855.2875695732801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1479.50880307737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A542-D143-AAE4-FCFC84831CF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C4.Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Load!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Load!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -640,6 +616,34 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -781,7 +785,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Operations/Second</a:t>
+                  <a:t>Operations/Second (read/write)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -947,37 +951,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1000,7 +974,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1011,11 +985,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1104,6 +1078,339 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>T2.Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Load!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1141.1617026132601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800.82838105528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2368.5457129322499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2329.91612301957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1979.41409342834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1764.6020822304499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1886.0807242549899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1409.0460758066699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A44C-D043-9234-1DB4261BDFFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T2.Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Load!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1339.9437223636601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2050.8613617719402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2392.9169657812799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2308.40258541089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1937.23363037582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1861.5040953089999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1441.96106705118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1531.1590874291801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A44C-D043-9234-1DB4261BDFFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T2.Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Load!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Load!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1134.94495516967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1789.8693395382099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2482.6216484607698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2269.1173133651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1955.0342130987201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1865.67164179104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1837.5597206909199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1861.1576400521101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A44C-D043-9234-1DB4261BDFFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Load!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T2.Xlarge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1167,351 +1474,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Load!$B$8:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1141.1617026132601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800.82838105528</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2368.5457129322499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2329.91612301957</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1979.41409342834</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1764.6020822304499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1886.0807242549899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1409.0460758066699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A44C-D043-9234-1DB4261BDFFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Load!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T2.Medium</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Load!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Load!$B$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1339.9437223636601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2050.8613617719402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2392.9169657812799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2308.40258541089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1937.23363037582</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1861.5040953089999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1441.96106705118</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1531.1590874291801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A44C-D043-9234-1DB4261BDFFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Load!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T2.Large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Load!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Load!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1134.94495516967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1789.8693395382099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2482.6216484607698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2269.1173133651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1955.0342130987201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1865.67164179104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1837.5597206909199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1861.1576400521101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A44C-D043-9234-1DB4261BDFFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Load!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T2.Xlarge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Load!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Load!$B$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1570,6 +1532,34 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1673,6 +1663,7 @@
         <c:axId val="1485387744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1711,7 +1702,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Operations/Second</a:t>
+                  <a:t>Operations/Second (insertions)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1877,37 +1868,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1923,117 +1884,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>T2.Large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Write Update'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Write Update'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>629.802242095981</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1146.2631820265899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1787.62960314622</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2164.5021645021602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1926.41109612791</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1857.70016719301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1927.8966647387699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1689.7600540723199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54F5-4348-AC7E-66630AC791A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Write Update'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>T3.Large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2097,33 +1947,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Write Update'!$B$3:$I$3</c:f>
+              <c:f>'Write Update'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1663.0633627141101</c:v>
+                  <c:v>629.802242095981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2321.8017181332698</c:v>
+                  <c:v>1146.2631820265899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2254.2831379621198</c:v>
+                  <c:v>1787.62960314622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2055.4984583761502</c:v>
+                  <c:v>2164.5021645021602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1698.9466530750899</c:v>
+                  <c:v>1926.41109612791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1499.700059988</c:v>
+                  <c:v>1857.70016719301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1376.08366588688</c:v>
+                  <c:v>1927.8966647387699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1333.3333333333301</c:v>
+                  <c:v>1689.7600540723199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,131 +1981,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-54F5-4348-AC7E-66630AC791A8}"/>
+              <c16:uniqueId val="{00000000-54F5-4348-AC7E-66630AC791A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Write Update'!$A$4</c:f>
+              <c:f>'Write Update'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M4.Large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Write Update'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Write Update'!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1596.1691939345501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2152.38915195867</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2259.8870056497099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2050.8613617719402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1714.6776406035599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1405.6789429294299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1351.71668018383</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1353.1799729364</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-54F5-4348-AC7E-66630AC791A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Write Update'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C4.Large</c:v>
+                  <c:v>T3.Large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2319,6 +2058,234 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'Write Update'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1663.0633627141101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2321.8017181332698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2254.2831379621198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2055.4984583761502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1698.9466530750899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1499.700059988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1376.08366588688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1333.3333333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54F5-4348-AC7E-66630AC791A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Write Update'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4.Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Write Update'!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1596.1691939345501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2152.38915195867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2259.8870056497099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2050.8613617719402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1714.6776406035599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1405.6789429294299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1351.71668018383</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1353.1799729364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54F5-4348-AC7E-66630AC791A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Write Update'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C4.Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'Write Update'!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2377,6 +2344,34 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2518,7 +2513,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Operation/Second</a:t>
+                  <a:t>Operation/Second (read/write)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2684,37 +2679,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2758,6 +2723,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Write Update'!$B$7:$I$7</c:f>
@@ -2836,6 +2834,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Write Update'!$B$8:$I$8</c:f>
@@ -2914,6 +2945,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Write Update'!$B$9:$I$9</c:f>
@@ -2992,6 +3056,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Write Update'!$B$10:$I$10</c:f>
@@ -3070,6 +3167,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Write Update'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Write Update'!$B$11:$I$11</c:f>
@@ -3144,6 +3274,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3199,6 +3343,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3286,6 +3431,11 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Operations/Second</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (inserts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3437,6 +3587,43 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3476,50 +3663,10 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5647,14 +5794,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5722,16 +5869,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123296</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624417</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>189441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>645583</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88371</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154516</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6149,7 +6296,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6456,7 +6603,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ycsbResults.xlsx
+++ b/ycsbResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austintolani/Projects/performanceEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C3556E-3C46-CD4E-9094-C04BC0FA4B87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84898804-D4E5-8A45-A2E6-4D4D2C842DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{E6D46ADE-2C26-9A4A-9DAB-76E8110A91D8}"/>
   </bookViews>
